--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57350.4064409266</v>
+        <v>49706.34458689626</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219456</v>
+        <v>33937088.13219458</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3596879.197715551</v>
+        <v>3596879.19771555</v>
       </c>
     </row>
     <row r="11">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>104.8891084058001</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>104.8891084057991</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424605</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>77.76273317180846</v>
+        <v>22.33910840579914</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.3603752680919</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656962</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>104.8891084057991</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>104.8891084058001</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>323.2115213346348</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>339.708611964232</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>63.62546569681959</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>270.2977079663671</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>356.3141292052477</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>237.9984165527094</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1770,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>20.1384733510918</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>126.5553709841806</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.17234332221</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.155166406294369</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>168.4424908234479</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2061,10 +2061,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>132.4467983455243</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>176.1446634785937</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>128.3640563204299</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>74.42811009354939</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>349.3491619383111</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>158.2534696142542</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2481,16 +2481,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E25" t="n">
-        <v>54.3166146207495</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>84.2671075212092</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>253.8033332034368</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>45.93840547389136</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>26.70110018160173</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2809,7 +2809,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>59.0501848103609</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>213.7416271160864</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>43.55349484584004</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2961,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
@@ -3006,19 +3006,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>120.1984533929678</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>218.5550421735446</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>166.9151815679636</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.34897497107005</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>368.5724630577456</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>157.599965998245</v>
       </c>
     </row>
     <row r="36">
@@ -3429,10 +3429,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>86.38976318987949</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>263.9127822410222</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>146.391735625387</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -3717,10 +3717,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>109.4776827655991</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>231.02147795163</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>109.5540470185018</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>37.64499605673969</v>
       </c>
       <c r="F43" t="n">
-        <v>89.30668535812433</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>170.1167790360041</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>264.3476845812649</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>151.7710190562388</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>115.4753071926899</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="C8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="D8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="E8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585579</v>
+        <v>23.57954741585563</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558055</v>
+        <v>55.41632306558015</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318074</v>
+        <v>103.1313969318067</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183101</v>
+        <v>162.326165318309</v>
       </c>
       <c r="M8" t="n">
-        <v>228.191750759094</v>
+        <v>228.1917507590923</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326593</v>
+        <v>295.1231102326571</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336438</v>
+        <v>358.3244950336411</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455686</v>
+        <v>412.2654147455655</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245031</v>
+        <v>452.7727990244996</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698458</v>
+        <v>476.335642169842</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698458</v>
+        <v>476.335642169842</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698458</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698458</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698458</v>
+        <v>250.1002694948322</v>
       </c>
       <c r="W8" t="n">
-        <v>476.3356421698458</v>
+        <v>250.1002694948322</v>
       </c>
       <c r="X8" t="n">
-        <v>356.0488638441271</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="Y8" t="n">
-        <v>235.7620855184085</v>
+        <v>9.52671284339684</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>296.3970358980972</v>
+        <v>115.4753071926889</v>
       </c>
       <c r="C9" t="n">
-        <v>296.3970358980972</v>
+        <v>115.4753071926889</v>
       </c>
       <c r="D9" t="n">
-        <v>296.3970358980972</v>
+        <v>115.4753071926889</v>
       </c>
       <c r="E9" t="n">
-        <v>217.8488205730382</v>
+        <v>92.91055122723522</v>
       </c>
       <c r="F9" t="n">
-        <v>134.4649821891998</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="G9" t="n">
-        <v>49.28466765965136</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="I9" t="n">
-        <v>42.5004579116045</v>
+        <v>16.43678475114677</v>
       </c>
       <c r="J9" t="n">
-        <v>67.70899752367961</v>
+        <v>134.3298561881827</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029957</v>
+        <v>166.7385335674985</v>
       </c>
       <c r="L9" t="n">
-        <v>143.6951411186853</v>
+        <v>210.3159997831877</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887761014</v>
+        <v>261.1688474406034</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936385</v>
+        <v>313.3676186581401</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999714</v>
+        <v>361.1192964644726</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018337</v>
+        <v>399.4442277663346</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.442570732809</v>
+        <v>425.0634293973096</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698458</v>
+        <v>476.335642169842</v>
       </c>
       <c r="S9" t="n">
-        <v>416.6838142238158</v>
+        <v>476.335642169842</v>
       </c>
       <c r="T9" t="n">
-        <v>416.6838142238158</v>
+        <v>476.335642169842</v>
       </c>
       <c r="U9" t="n">
-        <v>416.6838142238158</v>
+        <v>356.0488638441243</v>
       </c>
       <c r="V9" t="n">
-        <v>416.6838142238158</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="W9" t="n">
-        <v>296.3970358980972</v>
+        <v>115.4753071926889</v>
       </c>
       <c r="X9" t="n">
-        <v>296.3970358980972</v>
+        <v>115.4753071926889</v>
       </c>
       <c r="Y9" t="n">
-        <v>296.3970358980972</v>
+        <v>115.4753071926889</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396915</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396915</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396915</v>
+        <v>115.4753071926889</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642519</v>
+        <v>108.0024003011149</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137716</v>
+        <v>127.5511863760667</v>
       </c>
       <c r="L10" t="n">
-        <v>65.98721697583447</v>
+        <v>152.5669021405238</v>
       </c>
       <c r="M10" t="n">
-        <v>92.36278178728962</v>
+        <v>178.9424669519787</v>
       </c>
       <c r="N10" t="n">
-        <v>122.6564278587353</v>
+        <v>204.6908797845033</v>
       </c>
       <c r="O10" t="n">
-        <v>240.5494992957721</v>
+        <v>240.5494992957703</v>
       </c>
       <c r="P10" t="n">
-        <v>358.442570732809</v>
+        <v>358.4425707328061</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698458</v>
+        <v>476.335642169842</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698458</v>
+        <v>476.335642169842</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698458</v>
+        <v>356.0488638441243</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698458</v>
+        <v>356.0488638441243</v>
       </c>
       <c r="U10" t="n">
-        <v>356.0488638441271</v>
+        <v>356.0488638441243</v>
       </c>
       <c r="V10" t="n">
-        <v>235.7620855184085</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="W10" t="n">
-        <v>235.7620855184085</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="X10" t="n">
-        <v>129.8134911691155</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396915</v>
+        <v>235.7620855184066</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1355.033554032792</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C11" t="n">
-        <v>916.8910812162151</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="D11" t="n">
-        <v>480.9812963906596</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895474</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5071,22 +5071,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1698.173566117875</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1355.033554032792</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>1355.033554032792</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y11" t="n">
-        <v>1355.033554032792</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.655226289377</v>
+        <v>730.9745012407179</v>
       </c>
       <c r="C13" t="n">
-        <v>471.655226289377</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D13" t="n">
-        <v>471.655226289377</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E13" t="n">
-        <v>471.655226289377</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>875.5973915434846</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1445.355106505019</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>1982.790237078562</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,7 +5226,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
@@ -5235,16 +5235,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1422.239195059305</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>922.7931199597051</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>880.4839877111824</v>
+        <v>1076.34405614905</v>
       </c>
       <c r="C14" t="n">
-        <v>880.4839877111824</v>
+        <v>1076.34405614905</v>
       </c>
       <c r="D14" t="n">
-        <v>880.4839877111824</v>
+        <v>1076.34405614905</v>
       </c>
       <c r="E14" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228015</v>
@@ -5293,7 +5293,7 @@
         <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="X14" t="n">
-        <v>1715.069681896437</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="Y14" t="n">
-        <v>1306.78355819609</v>
+        <v>1076.34405614905</v>
       </c>
     </row>
     <row r="15">
@@ -5357,10 +5357,10 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.9024503859694</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C16" t="n">
-        <v>541.3407388691943</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D16" t="n">
-        <v>541.3407388691943</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E16" t="n">
-        <v>541.3407388691943</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>364.6336848309505</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>199.8925044434689</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>67.54844382278483</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895473</v>
@@ -5448,7 +5448,7 @@
         <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180194</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5469,19 +5469,19 @@
         <v>2215.901038951971</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.514407000714</v>
+        <v>2088.067330887142</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.558898871144</v>
+        <v>1801.111822757573</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.532494457436</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.140739790848</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y16" t="n">
-        <v>905.7210691049565</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1782.900983623584</v>
+        <v>447.8760776233103</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>447.8760776233103</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>447.8760776233103</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>447.8760776233103</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>447.8760776233103</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>48.37338630278742</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.256885969251</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W17" t="n">
-        <v>2101.256885969251</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X17" t="n">
-        <v>2101.256885969251</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2101.256885969251</v>
+        <v>874.1756481082181</v>
       </c>
     </row>
     <row r="18">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851416</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C19" t="n">
-        <v>616.0817647851416</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D19" t="n">
-        <v>450.2037719866643</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E19" t="n">
-        <v>280.4457682374015</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>110.3018381127067</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N19" t="n">
-        <v>1364.434443083199</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O19" t="n">
         <v>1657.620488527956</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041287</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2182.403674944107</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C20" t="n">
-        <v>1744.26120212753</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y20" t="n">
-        <v>2360.327577447737</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5873,10 +5873,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.655226289377</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C22" t="n">
-        <v>299.093514772602</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D22" t="n">
-        <v>299.093514772602</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>299.093514772602</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>122.3864607343582</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
@@ -5916,19 +5916,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092378</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1355.033554032792</v>
+        <v>1233.361929063012</v>
       </c>
       <c r="C23" t="n">
-        <v>916.8910812162151</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D23" t="n">
-        <v>480.9812963906596</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E23" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
         <v>47.20655154895473</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2200.475587938389</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W23" t="n">
-        <v>2200.475587938389</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X23" t="n">
-        <v>1781.3331245177</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y23" t="n">
-        <v>1781.3331245177</v>
+        <v>1233.361929063012</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030328</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765398</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
         <v>79.14920158235847</v>
@@ -6068,22 +6068,22 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
         <v>1488.088567599445</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6129,13 +6129,13 @@
         <v>443.5200532683665</v>
       </c>
       <c r="D25" t="n">
-        <v>443.5200532683665</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E25" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
         <v>47.20655154895473</v>
@@ -6153,19 +6153,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>744.992999204955</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1329.17407462327</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N25" t="n">
-        <v>1898.931789584804</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1429.876801232471</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C26" t="n">
-        <v>1429.876801232471</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>993.9670164069157</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>560.1922715652108</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>132.3248419744186</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>132.3248419744186</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867019</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>1849.01926465316</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W26" t="n">
-        <v>1849.01926465316</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X26" t="n">
-        <v>1429.876801232471</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y26" t="n">
-        <v>1429.876801232471</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.0372729147116</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C28" t="n">
-        <v>856.6348431431041</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D28" t="n">
-        <v>690.7568503446269</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E28" t="n">
-        <v>520.9988465953642</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F28" t="n">
-        <v>344.2917925571204</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G28" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6390,19 +6390,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>326.783117436994</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>910.9641928553089</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1120.185357954413</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527957</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6420,16 +6420,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1839.693721399886</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1567.667316986178</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>1322.275562319591</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>1094.855891633699</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2300.68092612414</v>
       </c>
       <c r="U29" t="n">
-        <v>2108.089956131646</v>
+        <v>2041.610234645654</v>
       </c>
       <c r="V29" t="n">
-        <v>1745.473006065473</v>
+        <v>1678.99328457948</v>
       </c>
       <c r="W29" t="n">
-        <v>1340.617551476506</v>
+        <v>1274.137829990514</v>
       </c>
       <c r="X29" t="n">
-        <v>1124.716918025914</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="30">
@@ -6524,13 +6524,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
         <v>79.1492015823585</v>
@@ -6551,7 +6551,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>915.5847871853875</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C31" t="n">
-        <v>743.0230756686125</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D31" t="n">
-        <v>577.1450828701352</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E31" t="n">
-        <v>407.3870791208724</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F31" t="n">
         <v>407.3870791208724</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.355695376305</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180195</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6654,19 +6654,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1852.241235670562</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1580.214831256854</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1334.823076590267</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y31" t="n">
-        <v>1107.403405904375</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>701.7439652528259</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C32" t="n">
-        <v>701.7439652528259</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D32" t="n">
-        <v>701.7439652528259</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E32" t="n">
-        <v>267.9692204111211</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F32" t="n">
-        <v>267.9692204111211</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W32" t="n">
-        <v>1955.47212285877</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X32" t="n">
-        <v>1536.32965943808</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y32" t="n">
-        <v>1128.043535737734</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>749.9721259575934</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C34" t="n">
-        <v>749.9721259575934</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D34" t="n">
-        <v>584.0941331591162</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>688.1212571728194</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M34" t="n">
-        <v>818.7256495113488</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N34" t="n">
-        <v>1120.185357954412</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2302.399319901201</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2060.152095804608</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1781.765463853351</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1494.809955723781</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1222.783551310073</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
-        <v>977.3917966434851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>749.9721259575934</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1526.86868437219</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C35" t="n">
-        <v>1088.726211555613</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D35" t="n">
-        <v>1088.726211555613</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>1088.726211555613</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6958,7 +6958,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
@@ -6973,16 +6973,16 @@
         <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>1526.86868437219</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W35" t="n">
-        <v>1526.86868437219</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X35" t="n">
-        <v>1526.86868437219</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="Y35" t="n">
-        <v>1526.86868437219</v>
+        <v>1311.151286170962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
         <v>79.1492015823585</v>
@@ -7019,13 +7019,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7055,13 +7055,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>528.8193777246577</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C37" t="n">
-        <v>356.2576662078826</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>356.2576662078826</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>356.2576662078826</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H37" t="n">
         <v>47.20655154895474</v>
@@ -7101,19 +7101,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M37" t="n">
-        <v>1412.355695376305</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.854607180195</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2273.065190387253</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2030.817966290659</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1752.431334339402</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1465.475826209833</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.449421796124</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>948.0576671295366</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>720.6379964436449</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1849.01926465316</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1410.876791836584</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>1410.876791836584</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V38" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W38" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X38" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.413848425154</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C40" t="n">
-        <v>753.852136908379</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F40" t="n">
         <v>407.3870791208724</v>
@@ -7332,25 +7332,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7365,19 +7365,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1863.070296910329</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.070296910329</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W40" t="n">
-        <v>1591.04389249662</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1345.652137830033</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.232467144141</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1377.653252150329</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>1377.653252150329</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>1377.653252150329</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>2209.200554108492</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V41" t="n">
-        <v>2209.200554108492</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W41" t="n">
-        <v>2209.200554108492</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="X41" t="n">
-        <v>2209.200554108492</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.200554108492</v>
+        <v>1377.653252150329</v>
       </c>
     </row>
     <row r="42">
@@ -7548,19 +7548,19 @@
         <v>663.4738450083642</v>
       </c>
       <c r="C43" t="n">
-        <v>663.4738450083642</v>
+        <v>490.9121334915891</v>
       </c>
       <c r="D43" t="n">
-        <v>497.5958522098869</v>
+        <v>325.0341406931118</v>
       </c>
       <c r="E43" t="n">
-        <v>497.5958522098869</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
         <v>110.3018381127067</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>862.082053811994</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M43" t="n">
-        <v>992.6864461505235</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1526.86868437219</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="C44" t="n">
-        <v>1088.726211555613</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="D44" t="n">
-        <v>652.8164267300576</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="E44" t="n">
-        <v>219.0416818883528</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="F44" t="n">
-        <v>219.0416818883528</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>314.2244147623537</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7669,7 +7669,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
@@ -7687,13 +7687,13 @@
         <v>1526.86868437219</v>
       </c>
       <c r="W44" t="n">
-        <v>1526.86868437219</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X44" t="n">
-        <v>1526.86868437219</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y44" t="n">
-        <v>1526.86868437219</v>
+        <v>713.7271060828765</v>
       </c>
     </row>
     <row r="45">
@@ -7709,13 +7709,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268367</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>497.5958522098869</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>497.5958522098869</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7812,16 +7812,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>733.4227107706877</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1317.603786189002</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
-        <v>1887.361501150537</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
         <v>2105.896438675982</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.309872867521996</v>
+        <v>99.93061208465426</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946639</v>
+        <v>39.20322876385143</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.591144685778712</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>95.06085321698814</v>
+        <v>12.19777046368543</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912362</v>
+        <v>98.52803488912286</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340658</v>
+        <v>104.852087734065</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>192.4544649334021</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464593</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>177.1920849464592</v>
+        <v>264.6463123855406</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042867</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9801,22 +9801,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>444.9969971592899</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>158.2045317475392</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.54773060122727</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>175.7179764032062</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>177.1920849464598</v>
+        <v>80.00897722411321</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>175.7179764032068</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>45.75904403825086</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.9526642375972</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>328.8719396826108</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179677</v>
+        <v>74.18125311796777</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>111.3188274118214</v>
       </c>
       <c r="U8" t="n">
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>239.9068700230512</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440209</v>
+        <v>295.8671282440219</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1193519208816</v>
+        <v>285.1193519208826</v>
       </c>
     </row>
     <row r="9">
@@ -23108,16 +23108,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>15.41647735450735</v>
+        <v>70.84010212051666</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809192</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656965</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>55.47593365518765</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>78.04243221616014</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167648</v>
+        <v>64.38561618167742</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23184,10 +23184,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>45.13530232803203</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>63.17131530597098</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742788</v>
+        <v>82.66219243742792</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616403</v>
+        <v>13.56162857616409</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>35.6031071884392</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577339</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058124</v>
+        <v>165.0020425058133</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>138.0487287141216</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.0615634365714</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23263,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>100.3772339602496</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>61.09828807884503</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>111.3145178010417</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>13.78824508190678</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,7 +23503,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>73.12286818804006</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>176.952622233773</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>42.32586034702263</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>149.0473946475638</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.8642314578487</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>265.8691695352343</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.497492674413451</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>136.859342024047</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>245.891911301465</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>81.28948269514896</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>88.66565849005737</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>84.41188615009986</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>200.7373109512575</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E25" t="n">
-        <v>113.7438090910206</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -24448,19 +24448,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>182.7572284203194</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>161.1477055830456</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>124.8976889277159</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.5181126888908</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>150.603354205218</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>201.209411670396</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.3469376859572</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>163.887499655306</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24925,16 +24925,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>176.952622233773</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>248.0358572185188</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>85.63329813973776</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>55.01629223713877</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>246.6032964650981</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.59250992092833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>165.5242151522655</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>100.0994919970771</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>24.4443587762203</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>166.1250828661453</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>198.4155194416577</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>146.9259375451994</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>130.4154276550304</v>
       </c>
       <c r="F43" t="n">
-        <v>85.63329813973701</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>225.3908853713135</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>2.676651360263747</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>23.16896444162256</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>91015.66665442618</v>
+        <v>91015.66665442541</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>404831.0083172923</v>
+        <v>404831.0083172922</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>404831.0083172922</v>
+        <v>404831.0083172923</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>404831.0083172922</v>
+        <v>404831.0083172923</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>404831.0083172923</v>
+        <v>404831.0083172922</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>404831.0083172924</v>
+        <v>404831.0083172923</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>404831.0083172921</v>
+        <v>404831.0083172922</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>404831.0083172924</v>
+        <v>404831.0083172923</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>404831.0083172922</v>
+        <v>404831.0083172923</v>
       </c>
     </row>
     <row r="16">
@@ -26319,13 +26319,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>34693.90071497252</v>
+        <v>34693.90071497224</v>
       </c>
       <c r="E2" t="n">
+        <v>157297.5713008173</v>
+      </c>
+      <c r="F2" t="n">
         <v>157297.5713008174</v>
-      </c>
-      <c r="F2" t="n">
-        <v>157297.5713008173</v>
       </c>
       <c r="G2" t="n">
         <v>157297.5713008174</v>
@@ -26334,7 +26334,7 @@
         <v>157297.5713008174</v>
       </c>
       <c r="I2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="J2" t="n">
         <v>157297.5713008174</v>
@@ -26346,7 +26346,7 @@
         <v>157297.5713008174</v>
       </c>
       <c r="M2" t="n">
-        <v>157297.5713008173</v>
+        <v>157297.5713008174</v>
       </c>
       <c r="N2" t="n">
         <v>157297.5713008174</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730584</v>
+        <v>117708.4675730575</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180438</v>
+        <v>439858.2450180446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310208</v>
+        <v>30139.06600310184</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597479</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4384.178660451945</v>
+        <v>4384.178660451912</v>
       </c>
       <c r="E4" t="n">
         <v>12054.84944074259</v>
       </c>
       <c r="F4" t="n">
-        <v>12054.84944074259</v>
+        <v>12054.8494407426</v>
       </c>
       <c r="G4" t="n">
-        <v>12054.84944074259</v>
+        <v>12054.8494407426</v>
       </c>
       <c r="H4" t="n">
         <v>12054.84944074259</v>
@@ -26441,10 +26441,10 @@
         <v>12054.84944074259</v>
       </c>
       <c r="J4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="K4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="L4" t="n">
         <v>12054.84944074259</v>
@@ -26453,10 +26453,10 @@
         <v>12054.8494407426</v>
       </c>
       <c r="N4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="O4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="P4" t="n">
         <v>12054.8494407426</v>
@@ -26475,10 +26475,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.5622723924</v>
+        <v>42922.56227239233</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963781</v>
@@ -26487,13 +26487,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-130321.3077909302</v>
+        <v>-131488.2065870806</v>
       </c>
       <c r="E6" t="n">
-        <v>-340666.6043676068</v>
+        <v>-341220.4848108296</v>
       </c>
       <c r="F6" t="n">
-        <v>99191.64065043686</v>
+        <v>98637.76020721502</v>
       </c>
       <c r="G6" t="n">
-        <v>99191.640650437</v>
+        <v>98637.76020721502</v>
       </c>
       <c r="H6" t="n">
-        <v>99191.64065043704</v>
+        <v>98637.76020721505</v>
       </c>
       <c r="I6" t="n">
-        <v>99191.64065043701</v>
+        <v>98637.76020721499</v>
       </c>
       <c r="J6" t="n">
-        <v>99191.64065043698</v>
+        <v>98637.76020721505</v>
       </c>
       <c r="K6" t="n">
-        <v>99191.64065043695</v>
+        <v>98637.760207215</v>
       </c>
       <c r="L6" t="n">
-        <v>69052.57464733487</v>
+        <v>68498.69420411317</v>
       </c>
       <c r="M6" t="n">
-        <v>-18182.940909311</v>
+        <v>-18736.82135253313</v>
       </c>
       <c r="N6" t="n">
-        <v>99191.64065043698</v>
+        <v>98637.76020721506</v>
       </c>
       <c r="O6" t="n">
-        <v>99191.64065043701</v>
+        <v>98637.76020721506</v>
       </c>
       <c r="P6" t="n">
-        <v>99191.64065043698</v>
+        <v>98637.76020721503</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480517</v>
+        <v>94.25048217480442</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26795,10 +26795,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619341</v>
@@ -26807,13 +26807,13 @@
         <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480517</v>
+        <v>94.25048217480442</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184161</v>
+        <v>372.4514459184167</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194728</v>
+        <v>470.9979838194736</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424613</v>
+        <v>119.0839105424604</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194729</v>
+        <v>470.9979838194737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194728</v>
+        <v>470.9979838194736</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529853</v>
+        <v>0.3788964107529823</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624012</v>
+        <v>3.880372866623981</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555448</v>
+        <v>14.60740387555436</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214622</v>
+        <v>32.15835924214596</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093201</v>
+        <v>48.19704430931971</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990178</v>
+        <v>59.79269533990131</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463019</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168211</v>
+        <v>67.60743381168157</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725711</v>
+        <v>63.8397826272566</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679277</v>
+        <v>54.48577748679234</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670147</v>
+        <v>40.91654977670115</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196223</v>
+        <v>23.80085166196205</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033663</v>
+        <v>8.634101960033593</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071194</v>
+        <v>1.658619038071181</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023882</v>
+        <v>0.03031171286023858</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250526</v>
+        <v>0.202727452225051</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857745</v>
+        <v>1.95792039385773</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888875</v>
+        <v>6.979870613888819</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578064</v>
+        <v>19.15329845780625</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688493</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211067</v>
+        <v>44.01764264211031</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526881</v>
+        <v>51.3665127852684</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286578</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619487</v>
+        <v>48.23401798619448</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200629</v>
+        <v>38.7120518200626</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542953</v>
+        <v>25.87798144542932</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779757</v>
+        <v>12.58688514779747</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531129</v>
+        <v>3.765573509531098</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457163</v>
+        <v>0.8171338973457097</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322715</v>
+        <v>0.01333733238322705</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889929</v>
+        <v>0.1699598858889916</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51109789454032</v>
+        <v>1.511097894540308</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643534</v>
+        <v>5.111157295643493</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323518</v>
+        <v>12.0161639323517</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055754</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>25.2683997620781</v>
+        <v>25.26839976207789</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803549</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063109</v>
+        <v>26.00849781063088</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254733</v>
+        <v>24.02305732547311</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333783</v>
+        <v>20.55587565333766</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839558</v>
+        <v>14.23182280839547</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517807</v>
+        <v>7.642014505517746</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96193728408363</v>
+        <v>2.961937284083606</v>
       </c>
       <c r="T10" t="n">
-        <v>0.726192239707515</v>
+        <v>0.7261922397075092</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308714</v>
+        <v>0.009270539230308641</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32168,28 +32168,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642308</v>
+        <v>14.19478239642297</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214622</v>
+        <v>32.15835924214599</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932009</v>
+        <v>48.19704430931972</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990171</v>
+        <v>59.79269533990131</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463019</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168209</v>
+        <v>67.60743381168157</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725714</v>
+        <v>63.83978262725657</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679276</v>
+        <v>54.48577748679236</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670146</v>
+        <v>40.91654977670117</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196227</v>
+        <v>23.80085166196199</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020968</v>
+        <v>6.979870613888821</v>
       </c>
       <c r="J9" t="n">
-        <v>25.4631713253284</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688493</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211067</v>
+        <v>44.0176426421103</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526881</v>
+        <v>51.36651278526838</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286576</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619489</v>
+        <v>48.23401798619449</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006292</v>
+        <v>38.71205182006258</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542955</v>
+        <v>25.87798144542933</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424614</v>
+        <v>51.79011391164892</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323518</v>
+        <v>99.47039137143238</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055754</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>25.2683997620781</v>
+        <v>25.26839976207791</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6419846580355</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>30.5996424964098</v>
+        <v>26.00849781063087</v>
       </c>
       <c r="O10" t="n">
-        <v>119.0839105424614</v>
+        <v>36.22082778915853</v>
       </c>
       <c r="P10" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561045</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>294.2413903654056</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35725,10 +35725,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,7 +35813,7 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712365</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
@@ -35825,10 +35825,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
@@ -36056,13 +36056,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>296.1475206512691</v>
+        <v>383.6017480903504</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36208,7 +36208,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36217,7 +36217,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36281,13 +36281,13 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409513</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
         <v>575.5128433954892</v>
@@ -36436,7 +36436,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562328</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36445,7 +36445,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
@@ -36454,7 +36454,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -36521,22 +36521,22 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>576.9206257840672</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
-        <v>277.1599674523491</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36615,7 +36615,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36694,10 +36694,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>211.3345102011157</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36913,16 +36913,16 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>309.1157135712374</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37074,7 +37074,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>304.5047560030946</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37396,7 +37396,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37469,22 +37469,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>309.1157135712369</v>
+        <v>211.9326058488905</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37545,13 +37545,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37782,28 +37782,28 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766677</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>300.8399982398713</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>170.8810658749154</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
         <v>240.36368292423</v>
